--- a/Tables/region_drought_deltaAIC_global.xlsx
+++ b/Tables/region_drought_deltaAIC_global.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Papers/Rapid_drought/Paper 3/climate_lag/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB6D1C-D51B-BD4A-8FE0-EFCBC8F1EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D10D005-11AA-C443-80C6-0779FB2B574F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="17140" xr2:uid="{2A892CC7-2800-CA44-AEAF-7933B29DDD48}"/>
   </bookViews>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,19 +181,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -512,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570319F-587C-AC49-B3DA-5D8DEC723E7D}">
   <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,41 +525,39 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="14"/>
       <c r="L2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="10" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="10" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="10" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
@@ -577,7 +573,7 @@
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
@@ -590,7 +586,7 @@
       <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="15"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="9" t="s">
         <v>6</v>
       </c>
@@ -603,7 +599,7 @@
       <c r="O4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="12"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="9" t="s">
         <v>6</v>
       </c>
@@ -633,7 +629,7 @@
       <c r="E5" s="3">
         <v>9.3528663729193795</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>4.7850847011163804</v>
       </c>
@@ -646,7 +642,7 @@
       <c r="J5" s="3">
         <v>6.7296737318842998</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="3">
         <v>8.8743705862843907</v>
       </c>
@@ -659,7 +655,7 @@
       <c r="O5" s="3">
         <v>9.6541446724895597</v>
       </c>
-      <c r="P5" s="13"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>7.1384741179044804</v>
       </c>
@@ -689,7 +685,7 @@
       <c r="E6" s="3">
         <v>9.4032979701278201</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>6.3426562677741503</v>
       </c>
@@ -702,7 +698,7 @@
       <c r="J6" s="3">
         <v>6.1701048132727001</v>
       </c>
-      <c r="K6" s="13"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="3">
         <v>9.1765614186088005</v>
       </c>
@@ -715,7 +711,7 @@
       <c r="O6" s="3">
         <v>9.4628985284061908</v>
       </c>
-      <c r="P6" s="13"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>6.9403132979950897</v>
       </c>
@@ -745,7 +741,7 @@
       <c r="E7" s="3">
         <v>8.3777479068712601</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3">
         <v>6.0166892119454998</v>
       </c>
@@ -758,7 +754,7 @@
       <c r="J7" s="3">
         <v>5.4998898101189297</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="3">
         <v>6.5639233581778198</v>
       </c>
@@ -771,7 +767,7 @@
       <c r="O7" s="3">
         <v>6.99386337809847</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>7.1171802755848104</v>
       </c>
@@ -801,7 +797,7 @@
       <c r="E8" s="3">
         <v>10.7613549623347</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>7.1022022550305302</v>
       </c>
@@ -814,7 +810,7 @@
       <c r="J8" s="3">
         <v>8.1382740839790095</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="3">
         <v>9.5655292519504709</v>
       </c>
@@ -827,7 +823,7 @@
       <c r="O8" s="3">
         <v>10.800177782457499</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>7.3522315094028299</v>
       </c>
@@ -857,7 +853,7 @@
       <c r="E9" s="6">
         <v>11.2384525180005</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="6">
         <v>7.4927616503209702</v>
       </c>
@@ -870,7 +866,7 @@
       <c r="J9" s="6">
         <v>8.6209991611654004</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="6">
         <v>10.434209121635799</v>
       </c>
@@ -883,7 +879,7 @@
       <c r="O9" s="6">
         <v>11.267317681871599</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="6">
         <v>7.7879412616039199</v>
       </c>
@@ -896,52 +892,44 @@
       <c r="T9" s="6">
         <v>9.4046744359547993</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="F10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="K11" s="14"/>
       <c r="L11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="10" t="s">
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
@@ -957,7 +945,7 @@
       <c r="E13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
@@ -970,7 +958,7 @@
       <c r="J13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="15"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="9" t="s">
         <v>6</v>
       </c>
@@ -983,7 +971,7 @@
       <c r="O13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P13" s="12"/>
+      <c r="P13" s="11"/>
       <c r="Q13" s="9" t="s">
         <v>6</v>
       </c>
@@ -1013,20 +1001,20 @@
       <c r="E14" s="3">
         <v>4.0653670361662098</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>4.5559690608552001</v>
       </c>
       <c r="H14" s="3">
         <v>13.006437480983999</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="12">
         <v>1.5872354547354899E-3</v>
       </c>
       <c r="J14" s="3">
         <v>3.8772780040144399</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3">
         <v>5.1294215659181601</v>
       </c>
@@ -1039,7 +1027,7 @@
       <c r="O14" s="3">
         <v>5.1725884085544704</v>
       </c>
-      <c r="P14" s="13"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3">
         <v>5.7711911755800402</v>
       </c>
@@ -1069,7 +1057,7 @@
       <c r="E15" s="3">
         <v>3.2733072211230998</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>4.74046824504103</v>
       </c>
@@ -1082,7 +1070,7 @@
       <c r="J15" s="3">
         <v>3.94171600568006</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="3">
         <v>5.4148745352949801</v>
       </c>
@@ -1095,7 +1083,7 @@
       <c r="O15" s="3">
         <v>5.03266879571947</v>
       </c>
-      <c r="P15" s="13"/>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3">
         <v>7.3232304837274604</v>
       </c>
@@ -1125,7 +1113,7 @@
       <c r="E16" s="3">
         <v>3.7073483070325901</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>4.3232084082237598</v>
       </c>
@@ -1138,7 +1126,7 @@
       <c r="J16" s="3">
         <v>3.3571379923305402</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="3">
         <v>5.9990388671067203</v>
       </c>
@@ -1151,7 +1139,7 @@
       <c r="O16" s="3">
         <v>4.6981794540124602</v>
       </c>
-      <c r="P16" s="13"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3">
         <v>4.5126765464360696</v>
       </c>
@@ -1181,7 +1169,7 @@
       <c r="E17" s="3">
         <v>4.4053263237792599</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>5.6141307721090898</v>
       </c>
@@ -1194,7 +1182,7 @@
       <c r="J17" s="3">
         <v>5.0472944553116603</v>
       </c>
-      <c r="K17" s="13"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="3">
         <v>6.89796989653951</v>
       </c>
@@ -1207,7 +1195,7 @@
       <c r="O17" s="3">
         <v>6.4582209869622602</v>
       </c>
-      <c r="P17" s="13"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3">
         <v>7.8836568764399999</v>
       </c>
@@ -1237,7 +1225,7 @@
       <c r="E18" s="6">
         <v>5.1694451470548302</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="6">
         <v>5.9513251767812099</v>
       </c>
@@ -1250,7 +1238,7 @@
       <c r="J18" s="6">
         <v>5.6122558480819897</v>
       </c>
-      <c r="K18" s="13"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6">
         <v>7.5271184824177899</v>
       </c>
@@ -1263,7 +1251,7 @@
       <c r="O18" s="6">
         <v>7.0544748432512296</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="6">
         <v>8.7897432479894597</v>
       </c>
@@ -1282,17 +1270,17 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="13"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1302,42 +1290,39 @@
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="K20" s="14"/>
       <c r="L20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="14"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="10" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="10" t="s">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="10" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
@@ -1353,7 +1338,7 @@
       <c r="E22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="9" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1351,7 @@
       <c r="J22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="9" t="s">
         <v>6</v>
       </c>
@@ -1379,7 +1364,7 @@
       <c r="O22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P22" s="12"/>
+      <c r="P22" s="11"/>
       <c r="Q22" s="9" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1394,7 @@
       <c r="E23" s="3">
         <v>7.5801404813942099</v>
       </c>
-      <c r="F23" s="13"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3">
         <v>7.9316989800354296</v>
       </c>
@@ -1422,7 +1407,7 @@
       <c r="J23" s="3">
         <v>7.6485343599365496</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="3"/>
       <c r="L23" s="3">
         <v>2.6834718143249998</v>
       </c>
@@ -1435,7 +1420,7 @@
       <c r="O23" s="4">
         <v>0.49716882393113299</v>
       </c>
-      <c r="P23" s="13"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3">
         <v>3.7073631261128002</v>
       </c>
@@ -1466,7 +1451,7 @@
       <c r="E24" s="3">
         <v>5.55360265688432</v>
       </c>
-      <c r="F24" s="13"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3">
         <v>7.51888496614038</v>
       </c>
@@ -1479,7 +1464,7 @@
       <c r="J24" s="3">
         <v>7.2609010602309398</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="3">
         <v>5.5107002597415002</v>
       </c>
@@ -1492,7 +1477,7 @@
       <c r="O24" s="3">
         <v>5.2100232058537603</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3">
         <v>3.5650329808431702</v>
       </c>
@@ -1523,7 +1508,7 @@
       <c r="E25" s="3">
         <v>6.1624416620543299</v>
       </c>
-      <c r="F25" s="13"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3">
         <v>6.8208907152629799</v>
       </c>
@@ -1536,7 +1521,7 @@
       <c r="J25" s="3">
         <v>6.7448761564473898</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="3">
         <v>5.3791036031034301</v>
       </c>
@@ -1549,7 +1534,7 @@
       <c r="O25" s="3">
         <v>4.5367806831154702</v>
       </c>
-      <c r="P25" s="13"/>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3">
         <v>3.5364563176822199</v>
       </c>
@@ -1580,7 +1565,7 @@
       <c r="E26" s="3">
         <v>7.8968263238139098</v>
       </c>
-      <c r="F26" s="13"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3">
         <v>8.9793615184544304</v>
       </c>
@@ -1593,7 +1578,7 @@
       <c r="J26" s="3">
         <v>8.8273717199090207</v>
       </c>
-      <c r="K26" s="13"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3">
         <v>5.35226516062448</v>
       </c>
@@ -1606,7 +1591,7 @@
       <c r="O26" s="3">
         <v>4.9779812127053402</v>
       </c>
-      <c r="P26" s="13"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3">
         <v>5.24843159413604</v>
       </c>
@@ -1637,7 +1622,7 @@
       <c r="E27" s="6">
         <v>8.1489745361268398</v>
       </c>
-      <c r="F27" s="13"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="6">
         <v>9.1127544060718702</v>
       </c>
@@ -1650,20 +1635,20 @@
       <c r="J27" s="6">
         <v>9.2761117902095993</v>
       </c>
-      <c r="K27" s="13"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="6">
         <v>5.9601300082040298</v>
       </c>
       <c r="M27" s="6">
         <v>16.0465140601464</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="14">
         <v>2.40200675168126</v>
       </c>
       <c r="O27" s="6">
         <v>5.8599603848547304</v>
       </c>
-      <c r="P27" s="13"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="6">
         <v>5.4551231545251504</v>
       </c>
